--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.113303</v>
+        <v>22.391842</v>
       </c>
       <c r="H2">
-        <v>66.33990900000001</v>
+        <v>67.17552599999999</v>
       </c>
       <c r="I2">
-        <v>0.9168319126933797</v>
+        <v>0.9212489764513737</v>
       </c>
       <c r="J2">
-        <v>0.9168319126933796</v>
+        <v>0.9212489764513737</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.105980333333334</v>
+        <v>6.577645333333334</v>
       </c>
       <c r="N2">
-        <v>15.317941</v>
+        <v>19.732936</v>
       </c>
       <c r="O2">
-        <v>0.04494800244635684</v>
+        <v>0.05888974044969256</v>
       </c>
       <c r="P2">
-        <v>0.04494800244635684</v>
+        <v>0.05888974044969258</v>
       </c>
       <c r="Q2">
-        <v>112.910090223041</v>
+        <v>147.2855950360373</v>
       </c>
       <c r="R2">
-        <v>1016.190812007369</v>
+        <v>1325.570355324336</v>
       </c>
       <c r="S2">
-        <v>0.04120976305464005</v>
+        <v>0.05425211311276634</v>
       </c>
       <c r="T2">
-        <v>0.04120976305464005</v>
+        <v>0.05425211311276635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.113303</v>
+        <v>22.391842</v>
       </c>
       <c r="H3">
-        <v>66.33990900000001</v>
+        <v>67.17552599999999</v>
       </c>
       <c r="I3">
-        <v>0.9168319126933797</v>
+        <v>0.9212489764513737</v>
       </c>
       <c r="J3">
-        <v>0.9168319126933796</v>
+        <v>0.9212489764513737</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>278.476586</v>
       </c>
       <c r="O3">
-        <v>0.8171441754985934</v>
+        <v>0.8310681122594473</v>
       </c>
       <c r="P3">
-        <v>0.8171441754985934</v>
+        <v>0.8310681122594474</v>
       </c>
       <c r="Q3">
-        <v>2052.679041541186</v>
+        <v>2078.53457147047</v>
       </c>
       <c r="R3">
-        <v>18474.11137387068</v>
+        <v>18706.81114323423</v>
       </c>
       <c r="S3">
-        <v>0.7491838573686301</v>
+        <v>0.7656206477803912</v>
       </c>
       <c r="T3">
-        <v>0.74918385736863</v>
+        <v>0.7656206477803913</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.113303</v>
+        <v>22.391842</v>
       </c>
       <c r="H4">
-        <v>66.33990900000001</v>
+        <v>67.17552599999999</v>
       </c>
       <c r="I4">
-        <v>0.9168319126933797</v>
+        <v>0.9212489764513737</v>
       </c>
       <c r="J4">
-        <v>0.9168319126933796</v>
+        <v>0.9212489764513737</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.04351533333333333</v>
+        <v>0.17749</v>
       </c>
       <c r="N4">
-        <v>0.130546</v>
+        <v>0.53247</v>
       </c>
       <c r="O4">
-        <v>0.0003830659699865731</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="P4">
-        <v>0.0003830659699865732</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="Q4">
-        <v>0.962267751146</v>
+        <v>3.97432803658</v>
       </c>
       <c r="R4">
-        <v>8.660409760314</v>
+        <v>35.76895232921999</v>
       </c>
       <c r="S4">
-        <v>0.0003512071059505346</v>
+        <v>0.001463929273837137</v>
       </c>
       <c r="T4">
-        <v>0.0003512071059505347</v>
+        <v>0.001463929273837137</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.113303</v>
+        <v>22.391842</v>
       </c>
       <c r="H5">
-        <v>66.33990900000001</v>
+        <v>67.17552599999999</v>
       </c>
       <c r="I5">
-        <v>0.9168319126933797</v>
+        <v>0.9212489764513737</v>
       </c>
       <c r="J5">
-        <v>0.9168319126933796</v>
+        <v>0.9212489764513737</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.62246733333333</v>
+        <v>12.09091866666667</v>
       </c>
       <c r="N5">
-        <v>46.867402</v>
+        <v>36.272756</v>
       </c>
       <c r="O5">
-        <v>0.1375247560850632</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="P5">
-        <v>0.1375247560850632</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="Q5">
-        <v>345.464353749602</v>
+        <v>270.7379404188507</v>
       </c>
       <c r="R5">
-        <v>3109.179183746418</v>
+        <v>2436.641463769656</v>
       </c>
       <c r="S5">
-        <v>0.126087085164159</v>
+        <v>0.09972533542012063</v>
       </c>
       <c r="T5">
-        <v>0.126087085164159</v>
+        <v>0.09972533542012066</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.846222666666667</v>
+        <v>22.391842</v>
       </c>
       <c r="H6">
-        <v>5.538667999999999</v>
+        <v>67.17552599999999</v>
       </c>
       <c r="I6">
-        <v>0.0765455915264161</v>
+        <v>0.9212489764513737</v>
       </c>
       <c r="J6">
-        <v>0.07654559152641609</v>
+        <v>0.9212489764513737</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>5.105980333333334</v>
+        <v>0.02266633333333333</v>
       </c>
       <c r="N6">
-        <v>15.317941</v>
+        <v>0.067999</v>
       </c>
       <c r="O6">
-        <v>0.04494800244635684</v>
+        <v>0.0002029319641455607</v>
       </c>
       <c r="P6">
-        <v>0.04494800244635684</v>
+        <v>0.0002029319641455608</v>
       </c>
       <c r="Q6">
-        <v>9.426776626954222</v>
+        <v>0.5075409547193332</v>
       </c>
       <c r="R6">
-        <v>84.840989642588</v>
+        <v>4.567868592473999</v>
       </c>
       <c r="S6">
-        <v>0.003440571435187182</v>
+        <v>0.0001869508642583647</v>
       </c>
       <c r="T6">
-        <v>0.003440571435187182</v>
+        <v>0.0001869508642583647</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +856,10 @@
         <v>5.538667999999999</v>
       </c>
       <c r="I7">
-        <v>0.0765455915264161</v>
+        <v>0.07595760732716819</v>
       </c>
       <c r="J7">
-        <v>0.07654559152641609</v>
+        <v>0.07595760732716819</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>92.82552866666667</v>
+        <v>6.577645333333334</v>
       </c>
       <c r="N7">
-        <v>278.476586</v>
+        <v>19.732936</v>
       </c>
       <c r="O7">
-        <v>0.8171441754985934</v>
+        <v>0.05888974044969256</v>
       </c>
       <c r="P7">
-        <v>0.8171441754985934</v>
+        <v>0.05888974044969258</v>
       </c>
       <c r="Q7">
-        <v>171.3765950697164</v>
+        <v>12.14379790769422</v>
       </c>
       <c r="R7">
-        <v>1542.389355627448</v>
+        <v>109.294181169248</v>
       </c>
       <c r="S7">
-        <v>0.06254878427590541</v>
+        <v>0.004473123780676601</v>
       </c>
       <c r="T7">
-        <v>0.06254878427590539</v>
+        <v>0.004473123780676602</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +903,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,40 +918,40 @@
         <v>5.538667999999999</v>
       </c>
       <c r="I8">
-        <v>0.0765455915264161</v>
+        <v>0.07595760732716819</v>
       </c>
       <c r="J8">
-        <v>0.07654559152641609</v>
+        <v>0.07595760732716819</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.04351533333333333</v>
+        <v>92.82552866666667</v>
       </c>
       <c r="N8">
-        <v>0.130546</v>
+        <v>278.476586</v>
       </c>
       <c r="O8">
-        <v>0.0003830659699865731</v>
+        <v>0.8310681122594473</v>
       </c>
       <c r="P8">
-        <v>0.0003830659699865732</v>
+        <v>0.8310681122594474</v>
       </c>
       <c r="Q8">
-        <v>0.08033899474755554</v>
+        <v>171.3765950697164</v>
       </c>
       <c r="R8">
-        <v>0.7230509527279999</v>
+        <v>1542.389355627448</v>
       </c>
       <c r="S8">
-        <v>2.93220112662626E-05</v>
+        <v>0.06312594533313404</v>
       </c>
       <c r="T8">
-        <v>2.93220112662626E-05</v>
+        <v>0.06312594533313404</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +965,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,45 +980,45 @@
         <v>5.538667999999999</v>
       </c>
       <c r="I9">
-        <v>0.0765455915264161</v>
+        <v>0.07595760732716819</v>
       </c>
       <c r="J9">
-        <v>0.07654559152641609</v>
+        <v>0.07595760732716819</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>15.62246733333333</v>
+        <v>0.17749</v>
       </c>
       <c r="N9">
-        <v>46.867402</v>
+        <v>0.53247</v>
       </c>
       <c r="O9">
-        <v>0.1375247560850632</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="P9">
-        <v>0.1375247560850632</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="Q9">
-        <v>28.84255330005955</v>
+        <v>0.3276860611066666</v>
       </c>
       <c r="R9">
-        <v>259.582979700536</v>
+        <v>2.94917454996</v>
       </c>
       <c r="S9">
-        <v>0.01052691380405726</v>
+        <v>0.000120701968500626</v>
       </c>
       <c r="T9">
-        <v>0.01052691380405725</v>
+        <v>0.000120701968500626</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1024,7 +1027,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1597296666666667</v>
+        <v>1.846222666666667</v>
       </c>
       <c r="H10">
-        <v>0.479189</v>
+        <v>5.538667999999999</v>
       </c>
       <c r="I10">
-        <v>0.006622495780204159</v>
+        <v>0.07595760732716819</v>
       </c>
       <c r="J10">
-        <v>0.006622495780204158</v>
+        <v>0.07595760732716819</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.105980333333334</v>
+        <v>12.09091866666667</v>
       </c>
       <c r="N10">
-        <v>15.317941</v>
+        <v>36.272756</v>
       </c>
       <c r="O10">
-        <v>0.04494800244635684</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="P10">
-        <v>0.04494800244635684</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="Q10">
-        <v>0.8155765366498889</v>
+        <v>22.32252810322311</v>
       </c>
       <c r="R10">
-        <v>7.340188829849001</v>
+        <v>200.902752929008</v>
       </c>
       <c r="S10">
-        <v>0.0002976679565296044</v>
+        <v>0.008222422018410228</v>
       </c>
       <c r="T10">
-        <v>0.0002976679565296044</v>
+        <v>0.00822242201841023</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1086,7 +1089,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1597296666666667</v>
+        <v>1.846222666666667</v>
       </c>
       <c r="H11">
-        <v>0.479189</v>
+        <v>5.538667999999999</v>
       </c>
       <c r="I11">
-        <v>0.006622495780204159</v>
+        <v>0.07595760732716819</v>
       </c>
       <c r="J11">
-        <v>0.006622495780204158</v>
+        <v>0.07595760732716819</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>92.82552866666667</v>
+        <v>0.02266633333333333</v>
       </c>
       <c r="N11">
-        <v>278.476586</v>
+        <v>0.067999</v>
       </c>
       <c r="O11">
-        <v>0.8171441754985934</v>
+        <v>0.0002029319641455607</v>
       </c>
       <c r="P11">
-        <v>0.8171441754985934</v>
+        <v>0.0002029319641455608</v>
       </c>
       <c r="Q11">
-        <v>14.82699075208378</v>
+        <v>0.04184709837022222</v>
       </c>
       <c r="R11">
-        <v>133.442916768754</v>
+        <v>0.376623885332</v>
       </c>
       <c r="S11">
-        <v>0.005411533854057841</v>
+        <v>1.541422644669948E-05</v>
       </c>
       <c r="T11">
-        <v>0.005411533854057841</v>
+        <v>1.541422644669948E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,55 +1151,55 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1597296666666667</v>
+        <v>0.06789666666666666</v>
       </c>
       <c r="H12">
-        <v>0.479189</v>
+        <v>0.20369</v>
       </c>
       <c r="I12">
-        <v>0.006622495780204159</v>
+        <v>0.0027934162214581</v>
       </c>
       <c r="J12">
-        <v>0.006622495780204158</v>
+        <v>0.0027934162214581</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.04351533333333333</v>
+        <v>6.577645333333334</v>
       </c>
       <c r="N12">
-        <v>0.130546</v>
+        <v>19.732936</v>
       </c>
       <c r="O12">
-        <v>0.0003830659699865731</v>
+        <v>0.05888974044969256</v>
       </c>
       <c r="P12">
-        <v>0.0003830659699865732</v>
+        <v>0.05888974044969258</v>
       </c>
       <c r="Q12">
-        <v>0.006950689688222221</v>
+        <v>0.4466001926488889</v>
       </c>
       <c r="R12">
-        <v>0.062556207194</v>
+        <v>4.019401733840001</v>
       </c>
       <c r="S12">
-        <v>2.536852769775894E-06</v>
+        <v>0.0001645035562496284</v>
       </c>
       <c r="T12">
-        <v>2.536852769775894E-06</v>
+        <v>0.0001645035562496285</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,55 +1213,241 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.06789666666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.20369</v>
+      </c>
+      <c r="I13">
+        <v>0.0027934162214581</v>
+      </c>
+      <c r="J13">
+        <v>0.0027934162214581</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>92.82552866666667</v>
+      </c>
+      <c r="N13">
+        <v>278.476586</v>
+      </c>
+      <c r="O13">
+        <v>0.8310681122594473</v>
+      </c>
+      <c r="P13">
+        <v>0.8310681122594474</v>
+      </c>
+      <c r="Q13">
+        <v>6.302543978037778</v>
+      </c>
+      <c r="R13">
+        <v>56.72289580233999</v>
+      </c>
+      <c r="S13">
+        <v>0.002321519145922101</v>
+      </c>
+      <c r="T13">
+        <v>0.002321519145922101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.1597296666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.479189</v>
-      </c>
-      <c r="I13">
-        <v>0.006622495780204159</v>
-      </c>
-      <c r="J13">
-        <v>0.006622495780204158</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>15.62246733333333</v>
-      </c>
-      <c r="N13">
-        <v>46.867402</v>
-      </c>
-      <c r="O13">
-        <v>0.1375247560850632</v>
-      </c>
-      <c r="P13">
-        <v>0.1375247560850632</v>
-      </c>
-      <c r="Q13">
-        <v>2.495371499664222</v>
-      </c>
-      <c r="R13">
-        <v>22.458343496978</v>
-      </c>
-      <c r="S13">
-        <v>0.0009107571168469373</v>
-      </c>
-      <c r="T13">
-        <v>0.0009107571168469372</v>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.06789666666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.20369</v>
+      </c>
+      <c r="I14">
+        <v>0.0027934162214581</v>
+      </c>
+      <c r="J14">
+        <v>0.0027934162214581</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.17749</v>
+      </c>
+      <c r="N14">
+        <v>0.53247</v>
+      </c>
+      <c r="O14">
+        <v>0.001589070176746522</v>
+      </c>
+      <c r="P14">
+        <v>0.001589070176746522</v>
+      </c>
+      <c r="Q14">
+        <v>0.01205097936666667</v>
+      </c>
+      <c r="R14">
+        <v>0.1084588143</v>
+      </c>
+      <c r="S14">
+        <v>4.438934408759023E-06</v>
+      </c>
+      <c r="T14">
+        <v>4.438934408759023E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.06789666666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.20369</v>
+      </c>
+      <c r="I15">
+        <v>0.0027934162214581</v>
+      </c>
+      <c r="J15">
+        <v>0.0027934162214581</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.09091866666667</v>
+      </c>
+      <c r="N15">
+        <v>36.272756</v>
+      </c>
+      <c r="O15">
+        <v>0.108250145149968</v>
+      </c>
+      <c r="P15">
+        <v>0.108250145149968</v>
+      </c>
+      <c r="Q15">
+        <v>0.8209330744044444</v>
+      </c>
+      <c r="R15">
+        <v>7.38839766964</v>
+      </c>
+      <c r="S15">
+        <v>0.0003023877114371144</v>
+      </c>
+      <c r="T15">
+        <v>0.0003023877114371145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.06789666666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.20369</v>
+      </c>
+      <c r="I16">
+        <v>0.0027934162214581</v>
+      </c>
+      <c r="J16">
+        <v>0.0027934162214581</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02266633333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.067999</v>
+      </c>
+      <c r="O16">
+        <v>0.0002029319641455607</v>
+      </c>
+      <c r="P16">
+        <v>0.0002029319641455608</v>
+      </c>
+      <c r="Q16">
+        <v>0.001538968478888889</v>
+      </c>
+      <c r="R16">
+        <v>0.01385071631</v>
+      </c>
+      <c r="S16">
+        <v>5.668734404965628E-07</v>
+      </c>
+      <c r="T16">
+        <v>5.668734404965628E-07</v>
       </c>
     </row>
   </sheetData>
